--- a/src/assets/data/1_Planeacion Institucional/Caracterizacion/PI-FOR-006 Indicadores del proceso Planeacion Institucional.xlsx
+++ b/src/assets/data/1_Planeacion Institucional/Caracterizacion/PI-FOR-006 Indicadores del proceso Planeacion Institucional.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t xml:space="preserve">UNIVERSIDAD DE MANIZALES </t>
   </si>
@@ -155,6 +155,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11.0"/>
@@ -357,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -433,8 +436,11 @@
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,7 +996,9 @@
         <v>36</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="31"/>
+      <c r="C22" s="31">
+        <v>43776.0</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1008,7 +1016,9 @@
         <v>37</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="31"/>
+      <c r="C23" s="32" t="s">
+        <v>14</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
